--- a/data/operator_def_2.xlsx
+++ b/data/operator_def_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F6D50E-DCC5-3B48-9D2A-4CF4423B9D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED097B48-59BA-0343-9E73-3274B0E36FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="1700" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>electronics_transform</t>
   </si>
   <si>
-    <t>?AIk &lt;= ?C(?Rk)</t>
-  </si>
-  <si>
     <t>housing_transform</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>('R1',1) ('R21',1) ('R21', 1)</t>
+  </si>
+  <si>
+    <t>?ARk &lt;= ?C(?Rk)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -476,16 +476,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -493,16 +493,16 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -510,16 +510,16 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -527,19 +527,19 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1">
